--- a/Code/Results/Cases/Case_0_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06354144403898232</v>
+        <v>0.01997857905520561</v>
       </c>
       <c r="D2">
-        <v>0.05601883060482749</v>
+        <v>0.01930819441224685</v>
       </c>
       <c r="E2">
-        <v>0.2282506721956281</v>
+        <v>0.130636675233994</v>
       </c>
       <c r="F2">
-        <v>0.3698864008518044</v>
+        <v>0.4424814950166223</v>
       </c>
       <c r="G2">
-        <v>0.2643458107107151</v>
+        <v>0.289050929862789</v>
       </c>
       <c r="H2">
-        <v>0.2052561642227317</v>
+        <v>0.4517458746030272</v>
       </c>
       <c r="I2">
-        <v>0.2593272767674932</v>
+        <v>0.3249404618561798</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.395808402100243</v>
+        <v>0.7499470307241438</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.878248715581968</v>
+        <v>0.3056097893511591</v>
       </c>
       <c r="N2">
-        <v>0.7523364809362576</v>
+        <v>0.993287885816855</v>
       </c>
       <c r="O2">
-        <v>0.9412323504908073</v>
+        <v>1.406571826920398</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05531807232210895</v>
+        <v>0.01740730519347267</v>
       </c>
       <c r="D3">
-        <v>0.04922608405280471</v>
+        <v>0.01708077576778066</v>
       </c>
       <c r="E3">
-        <v>0.1995431683327169</v>
+        <v>0.1244272219009446</v>
       </c>
       <c r="F3">
-        <v>0.3376793227870678</v>
+        <v>0.4384638198585122</v>
       </c>
       <c r="G3">
-        <v>0.2406265684452933</v>
+        <v>0.286334960648297</v>
       </c>
       <c r="H3">
-        <v>0.1994684743494872</v>
+        <v>0.4540420131334386</v>
       </c>
       <c r="I3">
-        <v>0.237770023563197</v>
+        <v>0.3226345430633053</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.096276236897012</v>
+        <v>0.6543143975407588</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7615279491269789</v>
+        <v>0.2715890736685154</v>
       </c>
       <c r="N3">
-        <v>0.7485387614887884</v>
+        <v>0.994344804798672</v>
       </c>
       <c r="O3">
-        <v>0.8784895495577132</v>
+        <v>1.405364914913903</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05027113009214901</v>
+        <v>0.0158244275320456</v>
       </c>
       <c r="D4">
-        <v>0.04504504460335568</v>
+        <v>0.01570547196724448</v>
       </c>
       <c r="E4">
-        <v>0.1824047696981381</v>
+        <v>0.1207400044384528</v>
       </c>
       <c r="F4">
-        <v>0.3186550001381647</v>
+        <v>0.4363337317295688</v>
       </c>
       <c r="G4">
-        <v>0.226736418162119</v>
+        <v>0.2849324706649341</v>
       </c>
       <c r="H4">
-        <v>0.1963504642009468</v>
+        <v>0.4556960244562021</v>
       </c>
       <c r="I4">
-        <v>0.2250892641092683</v>
+        <v>0.3214676974139756</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.912105044752252</v>
+        <v>0.5953679209982852</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6902173816550459</v>
+        <v>0.2507364586208638</v>
       </c>
       <c r="N4">
-        <v>0.7470169847480648</v>
+        <v>0.9953708979673621</v>
       </c>
       <c r="O4">
-        <v>0.8422961362413162</v>
+        <v>1.405688021901184</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04821446625833659</v>
+        <v>0.01517839224198525</v>
       </c>
       <c r="D5">
-        <v>0.04333841312107722</v>
+        <v>0.01514313469117212</v>
       </c>
       <c r="E5">
-        <v>0.1755315931279142</v>
+        <v>0.1192687151943304</v>
       </c>
       <c r="F5">
-        <v>0.3110790816916662</v>
+        <v>0.4355503156784621</v>
       </c>
       <c r="G5">
-        <v>0.221233827991675</v>
+        <v>0.2844274486394482</v>
       </c>
       <c r="H5">
-        <v>0.1951842146177256</v>
+        <v>0.4564314478919869</v>
       </c>
       <c r="I5">
-        <v>0.2200525238906614</v>
+        <v>0.3210547459319493</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.836974460804839</v>
+        <v>0.5712911943524546</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6612314580098584</v>
+        <v>0.2422481540065604</v>
       </c>
       <c r="N5">
-        <v>0.7465936290579691</v>
+        <v>0.9958841124018747</v>
       </c>
       <c r="O5">
-        <v>0.8280976668510363</v>
+        <v>1.406086929509385</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04787294339072901</v>
+        <v>0.01507105914376439</v>
       </c>
       <c r="D6">
-        <v>0.04305485089852112</v>
+        <v>0.01504964594235503</v>
       </c>
       <c r="E6">
-        <v>0.1743966680912834</v>
+        <v>0.1190262906494155</v>
       </c>
       <c r="F6">
-        <v>0.3098314294890159</v>
+        <v>0.4354253382323421</v>
       </c>
       <c r="G6">
-        <v>0.2203293259111305</v>
+        <v>0.2843476019807198</v>
       </c>
       <c r="H6">
-        <v>0.1949967161253383</v>
+        <v>0.4565572728635772</v>
       </c>
       <c r="I6">
-        <v>0.2192238225929266</v>
+        <v>0.3209899514690555</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.824493885104971</v>
+        <v>0.5672899663153714</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6564223711979196</v>
+        <v>0.2408392452042065</v>
       </c>
       <c r="N6">
-        <v>0.7465350214698603</v>
+        <v>0.9959750805493925</v>
       </c>
       <c r="O6">
-        <v>0.8257722725600161</v>
+        <v>1.40616929807193</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0502433938968565</v>
+        <v>0.01581571887872002</v>
       </c>
       <c r="D7">
-        <v>0.04502204011863853</v>
+        <v>0.01569789569422397</v>
       </c>
       <c r="E7">
-        <v>0.1823116419953834</v>
+        <v>0.1207200357942071</v>
       </c>
       <c r="F7">
-        <v>0.3185521291155382</v>
+        <v>0.4363228238143506</v>
       </c>
       <c r="G7">
-        <v>0.2266615845065445</v>
+        <v>0.2849253907068388</v>
       </c>
       <c r="H7">
-        <v>0.196334319857101</v>
+        <v>0.4557056940249424</v>
       </c>
       <c r="I7">
-        <v>0.2250208188543077</v>
+        <v>0.3214618750396525</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.911092147237468</v>
+        <v>0.5950434365608999</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.689826189287281</v>
+        <v>0.2506219444437505</v>
       </c>
       <c r="N7">
-        <v>0.7470104873181995</v>
+        <v>0.9953774340907842</v>
       </c>
       <c r="O7">
-        <v>0.842102466903782</v>
+        <v>1.405692320137604</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06070521403241713</v>
+        <v>0.01909287458900621</v>
       </c>
       <c r="D8">
-        <v>0.05367866974134472</v>
+        <v>0.01854179137644252</v>
       </c>
       <c r="E8">
-        <v>0.2182436478889684</v>
+        <v>0.1284694715171284</v>
       </c>
       <c r="F8">
-        <v>0.3586180234059242</v>
+        <v>0.4410262547510655</v>
       </c>
       <c r="G8">
-        <v>0.2560204549792431</v>
+        <v>0.2880593364673203</v>
       </c>
       <c r="H8">
-        <v>0.2031669510554792</v>
+        <v>0.4524869051496836</v>
       </c>
       <c r="I8">
-        <v>0.2517735509350416</v>
+        <v>0.324093660860818</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.292573878986445</v>
+        <v>0.7170211303663336</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8379195139675275</v>
+        <v>0.293872029196045</v>
       </c>
       <c r="N8">
-        <v>0.7508546229387889</v>
+        <v>0.9935741753677974</v>
       </c>
       <c r="O8">
-        <v>0.9190929601703459</v>
+        <v>1.4059346019299</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08126602526942861</v>
+        <v>0.02548566431050858</v>
       </c>
       <c r="D9">
-        <v>0.07058530698435561</v>
+        <v>0.02405653896126125</v>
       </c>
       <c r="E9">
-        <v>0.2931525824551784</v>
+        <v>0.144673522259545</v>
       </c>
       <c r="F9">
-        <v>0.4437267806171263</v>
+        <v>0.4529264250736205</v>
       </c>
       <c r="G9">
-        <v>0.3194908971659629</v>
+        <v>0.2963168538882286</v>
       </c>
       <c r="H9">
-        <v>0.2202693080267295</v>
+        <v>0.4481125409603948</v>
       </c>
       <c r="I9">
-        <v>0.3090678244710929</v>
+        <v>0.3312340079804557</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.039366236529645</v>
+        <v>0.9543497121239568</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.131936527030618</v>
+        <v>0.3789687357264455</v>
       </c>
       <c r="N9">
-        <v>0.7651524554563309</v>
+        <v>0.9930209894473592</v>
       </c>
       <c r="O9">
-        <v>1.090256599335873</v>
+        <v>1.414871548429517</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09644114473465493</v>
+        <v>0.03016081821421324</v>
       </c>
       <c r="D10">
-        <v>0.08298412475831896</v>
+        <v>0.02806890730363421</v>
       </c>
       <c r="E10">
-        <v>0.3517560332913732</v>
+        <v>0.1572111495284361</v>
       </c>
       <c r="F10">
-        <v>0.5110999745602811</v>
+        <v>0.4633093500992373</v>
       </c>
       <c r="G10">
-        <v>0.3705336957242906</v>
+        <v>0.3036836032238739</v>
       </c>
       <c r="H10">
-        <v>0.2354558603503705</v>
+        <v>0.4460807828923805</v>
       </c>
       <c r="I10">
-        <v>0.3547340808856561</v>
+        <v>0.3376930674264997</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.588421433161216</v>
+        <v>1.127507153572765</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.351325131317225</v>
+        <v>0.4416628493032846</v>
       </c>
       <c r="N10">
-        <v>0.7802707197485574</v>
+        <v>0.9944218769293371</v>
       </c>
       <c r="O10">
-        <v>1.230807615787313</v>
+        <v>1.426624728478913</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1033695327563464</v>
+        <v>0.03228276463171653</v>
       </c>
       <c r="D11">
-        <v>0.0886244800392646</v>
+        <v>0.02988541477677842</v>
       </c>
       <c r="E11">
-        <v>0.3793980456833381</v>
+        <v>0.1630562042624675</v>
       </c>
       <c r="F11">
-        <v>0.5430042815223644</v>
+        <v>0.4683907127435774</v>
       </c>
       <c r="G11">
-        <v>0.3949054047299683</v>
+        <v>0.3073199398837403</v>
       </c>
       <c r="H11">
-        <v>0.2430200247446805</v>
+        <v>0.4454133764491672</v>
       </c>
       <c r="I11">
-        <v>0.3764327124629858</v>
+        <v>0.3408962843025662</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.838571850650681</v>
+        <v>1.206005219862504</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.45214717291384</v>
+        <v>0.4702222675767018</v>
       </c>
       <c r="N11">
-        <v>0.788267698643935</v>
+        <v>0.9954494312490851</v>
       </c>
       <c r="O11">
-        <v>1.298551213707697</v>
+        <v>1.433104246168028</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.105997589333569</v>
+        <v>0.03308557178243632</v>
       </c>
       <c r="D12">
-        <v>0.09076073708862253</v>
+        <v>0.0305719896519463</v>
       </c>
       <c r="E12">
-        <v>0.3900254636179312</v>
+        <v>0.1652902362420292</v>
       </c>
       <c r="F12">
-        <v>0.5552841971013294</v>
+        <v>0.4703664974995121</v>
       </c>
       <c r="G12">
-        <v>0.404317210336572</v>
+        <v>0.3087381268250482</v>
       </c>
       <c r="H12">
-        <v>0.2459863609408046</v>
+        <v>0.4451975927627245</v>
       </c>
       <c r="I12">
-        <v>0.3847955747211955</v>
+        <v>0.3421474490558012</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.933377164207059</v>
+        <v>1.2356897666848</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.490497970312305</v>
+        <v>0.4810425609517921</v>
       </c>
       <c r="N12">
-        <v>0.7914674457775419</v>
+        <v>0.9958944681702633</v>
       </c>
       <c r="O12">
-        <v>1.324803881513418</v>
+        <v>1.435721227412188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1054313800079711</v>
+        <v>0.03291270586255735</v>
       </c>
       <c r="D13">
-        <v>0.09030063303091396</v>
+        <v>0.03042418180012874</v>
       </c>
       <c r="E13">
-        <v>0.3877292303750508</v>
+        <v>0.164808175348746</v>
       </c>
       <c r="F13">
-        <v>0.5526303744534076</v>
+        <v>0.4699386813800075</v>
       </c>
       <c r="G13">
-        <v>0.4022817960548792</v>
+        <v>0.3084308603418435</v>
       </c>
       <c r="H13">
-        <v>0.2453428454479649</v>
+        <v>0.4452424221199465</v>
       </c>
       <c r="I13">
-        <v>0.3829877689089471</v>
+        <v>0.3418762892623377</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.912955239684209</v>
+        <v>1.229298519619533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.482230387326979</v>
+        <v>0.4787119778719102</v>
       </c>
       <c r="N13">
-        <v>0.7907705227252109</v>
+        <v>0.9957961373478099</v>
       </c>
       <c r="O13">
-        <v>1.319122359338422</v>
+        <v>1.435150343050509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1035856510161324</v>
+        <v>0.03234882685968898</v>
       </c>
       <c r="D14">
-        <v>0.08880022144599309</v>
+        <v>0.02994192593241252</v>
       </c>
       <c r="E14">
-        <v>0.3802690511689448</v>
+        <v>0.163239584277072</v>
       </c>
       <c r="F14">
-        <v>0.5440104738635725</v>
+        <v>0.4685522274571454</v>
       </c>
       <c r="G14">
-        <v>0.3956759545606161</v>
+        <v>0.3074357885466128</v>
       </c>
       <c r="H14">
-        <v>0.2432619780042984</v>
+        <v>0.4453948832105823</v>
       </c>
       <c r="I14">
-        <v>0.377117724843842</v>
+        <v>0.3409984528475078</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.846369818617347</v>
+        <v>1.208448216941406</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.455298725942271</v>
+        <v>0.4711123514631907</v>
       </c>
       <c r="N14">
-        <v>0.7885274448581896</v>
+        <v>0.9954849250106292</v>
       </c>
       <c r="O14">
-        <v>1.300698706449907</v>
+        <v>1.433316271087051</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1024556900853071</v>
+        <v>0.03200333879375705</v>
       </c>
       <c r="D15">
-        <v>0.08788123643582679</v>
+        <v>0.02964636017001965</v>
       </c>
       <c r="E15">
-        <v>0.3757208901935982</v>
+        <v>0.162281472493504</v>
       </c>
       <c r="F15">
-        <v>0.5387569297535109</v>
+        <v>0.4677097045524121</v>
       </c>
       <c r="G15">
-        <v>0.3916540152256687</v>
+        <v>0.3068316471423316</v>
       </c>
       <c r="H15">
-        <v>0.242000899962548</v>
+        <v>0.4454930822450507</v>
       </c>
       <c r="I15">
-        <v>0.3735415779534179</v>
+        <v>0.3404657265610211</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.805595325020818</v>
+        <v>1.195671414946048</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.438825434824452</v>
+        <v>0.4664580653917341</v>
       </c>
       <c r="N15">
-        <v>0.7871761474895038</v>
+        <v>0.9953015756942989</v>
       </c>
       <c r="O15">
-        <v>1.289493391117702</v>
+        <v>1.432214131458551</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09598893242258555</v>
+        <v>0.03002204418491772</v>
       </c>
       <c r="D16">
-        <v>0.08261554646874458</v>
+        <v>0.02795001496202332</v>
       </c>
       <c r="E16">
-        <v>0.3499709018692272</v>
+        <v>0.1568320344897387</v>
       </c>
       <c r="F16">
-        <v>0.5090417239034153</v>
+        <v>0.4629844847447657</v>
       </c>
       <c r="G16">
-        <v>0.3689655655605435</v>
+        <v>0.3034517136415928</v>
       </c>
       <c r="H16">
-        <v>0.2349753621685409</v>
+        <v>0.44612956914915</v>
       </c>
       <c r="I16">
-        <v>0.3533357317211312</v>
+        <v>0.3374890677767723</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.572083198992061</v>
+        <v>1.122371487442138</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.344758799766268</v>
+        <v>0.4397972007193403</v>
       </c>
       <c r="N16">
-        <v>0.7797715063732653</v>
+        <v>0.9943625603009849</v>
       </c>
       <c r="O16">
-        <v>1.226461394234548</v>
+        <v>1.426224109783021</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09202878769124823</v>
+        <v>0.02880532725588125</v>
       </c>
       <c r="D17">
-        <v>0.07938548730690087</v>
+        <v>0.02690709509240463</v>
       </c>
       <c r="E17">
-        <v>0.3344386776921979</v>
+        <v>0.15352544728308</v>
       </c>
       <c r="F17">
-        <v>0.4911464046693226</v>
+        <v>0.4601774998119694</v>
       </c>
       <c r="G17">
-        <v>0.3553538191750079</v>
+        <v>0.301451399276857</v>
       </c>
       <c r="H17">
-        <v>0.2308386565951679</v>
+        <v>0.4465858287261995</v>
       </c>
       <c r="I17">
-        <v>0.3411859978165879</v>
+        <v>0.335730900186654</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.428945331741886</v>
+        <v>1.077333350877609</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.287330553360292</v>
+        <v>0.4234515931628096</v>
       </c>
       <c r="N17">
-        <v>0.7755229832129515</v>
+        <v>0.993886323236481</v>
       </c>
       <c r="O17">
-        <v>1.188804285832418</v>
+        <v>1.422839893253979</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08975333294020515</v>
+        <v>0.02810505385315309</v>
       </c>
       <c r="D18">
-        <v>0.0775276259226132</v>
+        <v>0.02630641502817355</v>
       </c>
       <c r="E18">
-        <v>0.3255962767932914</v>
+        <v>0.1516369000140045</v>
       </c>
       <c r="F18">
-        <v>0.4809705650203</v>
+        <v>0.4585966990360646</v>
       </c>
       <c r="G18">
-        <v>0.3476320520229592</v>
+        <v>0.3003277018929253</v>
       </c>
       <c r="H18">
-        <v>0.2285205645630981</v>
+        <v>0.446872432327595</v>
       </c>
       <c r="I18">
-        <v>0.3342840079609033</v>
+        <v>0.334744583388499</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.34665067552919</v>
+        <v>1.051403101958158</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.25439385150699</v>
+        <v>0.414053768323555</v>
       </c>
       <c r="N18">
-        <v>0.7731840597621584</v>
+        <v>0.9936491510915744</v>
       </c>
       <c r="O18">
-        <v>1.167499838981797</v>
+        <v>1.420999994316674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08898327695180797</v>
+        <v>0.02786787714758532</v>
       </c>
       <c r="D19">
-        <v>0.07689857233818742</v>
+        <v>0.02610289545086886</v>
       </c>
       <c r="E19">
-        <v>0.3226175333404555</v>
+        <v>0.1509997488302375</v>
       </c>
       <c r="F19">
-        <v>0.4775447835561977</v>
+        <v>0.4580672528803191</v>
       </c>
       <c r="G19">
-        <v>0.3450355293596488</v>
+        <v>0.2999518399656296</v>
       </c>
       <c r="H19">
-        <v>0.2277459900581675</v>
+        <v>0.4469736230663841</v>
       </c>
       <c r="I19">
-        <v>0.33196153622184</v>
+        <v>0.3344149137124575</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.318792344779183</v>
+        <v>1.042619240920942</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.243257556398973</v>
+        <v>0.4108724749048775</v>
       </c>
       <c r="N19">
-        <v>0.7724098178232452</v>
+        <v>0.993575166100527</v>
       </c>
       <c r="O19">
-        <v>1.160345941712677</v>
+        <v>1.420395334363775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09245010648348284</v>
+        <v>0.02893489569001417</v>
       </c>
       <c r="D20">
-        <v>0.07972933178086095</v>
+        <v>0.02701820086718243</v>
       </c>
       <c r="E20">
-        <v>0.3360825276506887</v>
+        <v>0.153876059199753</v>
       </c>
       <c r="F20">
-        <v>0.4930391496442326</v>
+        <v>0.4604728194165872</v>
       </c>
       <c r="G20">
-        <v>0.356791582374413</v>
+        <v>0.3016615579968516</v>
       </c>
       <c r="H20">
-        <v>0.2312726249022177</v>
+        <v>0.4465347569750548</v>
       </c>
       <c r="I20">
-        <v>0.3424703428123763</v>
+        <v>0.3359154789308434</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.444178869689608</v>
+        <v>1.082130390284362</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.293433933403122</v>
+        <v>0.4251912259359329</v>
       </c>
       <c r="N20">
-        <v>0.7759643346066838</v>
+        <v>0.9939332177765863</v>
       </c>
       <c r="O20">
-        <v>1.192775848198721</v>
+        <v>1.423189111837161</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1041276595174594</v>
+        <v>0.03251447184210576</v>
       </c>
       <c r="D21">
-        <v>0.08924091541869217</v>
+        <v>0.03008361169507623</v>
       </c>
       <c r="E21">
-        <v>0.3824557885029805</v>
+        <v>0.1636997552663857</v>
       </c>
       <c r="F21">
-        <v>0.5465368135867976</v>
+        <v>0.468958061956755</v>
       </c>
       <c r="G21">
-        <v>0.3976111479416033</v>
+        <v>0.3077269460834628</v>
       </c>
       <c r="H21">
-        <v>0.2438703486262739</v>
+        <v>0.4453490988068154</v>
       </c>
       <c r="I21">
-        <v>0.3788378264193213</v>
+        <v>0.3412552579998405</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.865925233269877</v>
+        <v>1.214573582707487</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.463204340441422</v>
+        <v>0.4733443995354065</v>
       </c>
       <c r="N21">
-        <v>0.7891815507310156</v>
+        <v>0.9955748193963956</v>
       </c>
       <c r="O21">
-        <v>1.306093471198409</v>
+        <v>1.433850546514236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1117858297880332</v>
+        <v>0.03484967173176301</v>
       </c>
       <c r="D22">
-        <v>0.09545967108943643</v>
+        <v>0.03207945572977877</v>
       </c>
       <c r="E22">
-        <v>0.4137057034815115</v>
+        <v>0.170240520242956</v>
       </c>
       <c r="F22">
-        <v>0.5826664968728466</v>
+        <v>0.4748043624614979</v>
       </c>
       <c r="G22">
-        <v>0.4253632047164331</v>
+        <v>0.3119311683484369</v>
       </c>
       <c r="H22">
-        <v>0.2527018808695658</v>
+        <v>0.4447895739946688</v>
       </c>
       <c r="I22">
-        <v>0.4034641544459987</v>
+        <v>0.3449676656562701</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.142032554395996</v>
+        <v>1.300893227952145</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.575172790360966</v>
+        <v>0.5048470109120586</v>
       </c>
       <c r="N22">
-        <v>0.7988245715234115</v>
+        <v>0.9969735831030988</v>
       </c>
       <c r="O22">
-        <v>1.383675145926588</v>
+        <v>1.441770603369235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1076958402326795</v>
+        <v>0.03360373365879354</v>
       </c>
       <c r="D23">
-        <v>0.09214025786882019</v>
+        <v>0.03101494305730768</v>
       </c>
       <c r="E23">
-        <v>0.3969342506857103</v>
+        <v>0.1667384836396053</v>
       </c>
       <c r="F23">
-        <v>0.5632705114544052</v>
+        <v>0.4716565394075616</v>
       </c>
       <c r="G23">
-        <v>0.4104471674509682</v>
+        <v>0.3096652642746136</v>
       </c>
       <c r="H23">
-        <v>0.2479309210611831</v>
+        <v>0.4450684918797805</v>
       </c>
       <c r="I23">
-        <v>0.39023755138399</v>
+        <v>0.3429658955706429</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.994617332027758</v>
+        <v>1.254845341091141</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.515311629093958</v>
+        <v>0.488030645859979</v>
       </c>
       <c r="N23">
-        <v>0.7935823232422479</v>
+        <v>0.9961972823538048</v>
       </c>
       <c r="O23">
-        <v>1.341927843123131</v>
+        <v>1.437456258540976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09225962431514745</v>
+        <v>0.02887632018679653</v>
       </c>
       <c r="D24">
-        <v>0.0795738823922747</v>
+        <v>0.02696797334355949</v>
       </c>
       <c r="E24">
-        <v>0.335339072611788</v>
+        <v>0.1537175087821723</v>
       </c>
       <c r="F24">
-        <v>0.4921830908204257</v>
+        <v>0.4603392027239224</v>
       </c>
       <c r="G24">
-        <v>0.3561412475750956</v>
+        <v>0.3015664632995936</v>
       </c>
       <c r="H24">
-        <v>0.2310762410337617</v>
+        <v>0.4465577708403856</v>
       </c>
       <c r="I24">
-        <v>0.3418894327231783</v>
+        <v>0.3358319546417761</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.437291797645628</v>
+        <v>1.079961764578798</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.290674349322558</v>
+        <v>0.4244047395566213</v>
       </c>
       <c r="N24">
-        <v>0.7757644777056214</v>
+        <v>0.993911902660372</v>
       </c>
       <c r="O24">
-        <v>1.190979233774243</v>
+        <v>1.423030900797357</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07569479597748341</v>
+        <v>0.02375996493289279</v>
       </c>
       <c r="D25">
-        <v>0.06601705253876844</v>
+        <v>0.02257145367626379</v>
       </c>
       <c r="E25">
-        <v>0.2723270134849116</v>
+        <v>0.1401801476286693</v>
       </c>
       <c r="F25">
-        <v>0.4199171112878943</v>
+        <v>0.449419711340532</v>
       </c>
       <c r="G25">
-        <v>0.3016078668372302</v>
+        <v>0.2938555899724804</v>
       </c>
       <c r="H25">
-        <v>0.2152099827202534</v>
+        <v>0.4490883953416898</v>
       </c>
       <c r="I25">
-        <v>0.2929885033646897</v>
+        <v>0.3290897853869268</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.837361596672025</v>
+        <v>0.8903532428073504</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.051894736281987</v>
+        <v>0.355917398774146</v>
       </c>
       <c r="N25">
-        <v>0.7605119550330528</v>
+        <v>0.9928524699872128</v>
       </c>
       <c r="O25">
-        <v>1.041543296213234</v>
+        <v>1.411544998278345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01997857905520561</v>
+        <v>0.06354144403890416</v>
       </c>
       <c r="D2">
-        <v>0.01930819441224685</v>
+        <v>0.05601883060479196</v>
       </c>
       <c r="E2">
-        <v>0.130636675233994</v>
+        <v>0.2282506721956565</v>
       </c>
       <c r="F2">
-        <v>0.4424814950166223</v>
+        <v>0.3698864008517972</v>
       </c>
       <c r="G2">
-        <v>0.289050929862789</v>
+        <v>0.2643458107106937</v>
       </c>
       <c r="H2">
-        <v>0.4517458746030272</v>
+        <v>0.2052561642227317</v>
       </c>
       <c r="I2">
-        <v>0.3249404618561798</v>
+        <v>0.2593272767675003</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7499470307241438</v>
+        <v>2.395808402100101</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3056097893511591</v>
+        <v>0.8782487155819538</v>
       </c>
       <c r="N2">
-        <v>0.993287885816855</v>
+        <v>0.7523364809363144</v>
       </c>
       <c r="O2">
-        <v>1.406571826920398</v>
+        <v>0.9412323504907789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01740730519347267</v>
+        <v>0.05531807232195973</v>
       </c>
       <c r="D3">
-        <v>0.01708077576778066</v>
+        <v>0.04922608405272655</v>
       </c>
       <c r="E3">
-        <v>0.1244272219009446</v>
+        <v>0.1995431683326956</v>
       </c>
       <c r="F3">
-        <v>0.4384638198585122</v>
+        <v>0.3376793227870891</v>
       </c>
       <c r="G3">
-        <v>0.286334960648297</v>
+        <v>0.2406265684453004</v>
       </c>
       <c r="H3">
-        <v>0.4540420131334386</v>
+        <v>0.1994684743494872</v>
       </c>
       <c r="I3">
-        <v>0.3226345430633053</v>
+        <v>0.2377700235632041</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6543143975407588</v>
+        <v>2.09627623689687</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2715890736685154</v>
+        <v>0.7615279491269789</v>
       </c>
       <c r="N3">
-        <v>0.994344804798672</v>
+        <v>0.7485387614887244</v>
       </c>
       <c r="O3">
-        <v>1.405364914913903</v>
+        <v>0.8784895495577132</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0158244275320456</v>
+        <v>0.05027113009192163</v>
       </c>
       <c r="D4">
-        <v>0.01570547196724448</v>
+        <v>0.0450450446032491</v>
       </c>
       <c r="E4">
-        <v>0.1207400044384528</v>
+        <v>0.1824047696981737</v>
       </c>
       <c r="F4">
-        <v>0.4363337317295688</v>
+        <v>0.3186550001381647</v>
       </c>
       <c r="G4">
-        <v>0.2849324706649341</v>
+        <v>0.2267364181621758</v>
       </c>
       <c r="H4">
-        <v>0.4556960244562021</v>
+        <v>0.1963504642010605</v>
       </c>
       <c r="I4">
-        <v>0.3214676974139756</v>
+        <v>0.2250892641092719</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5953679209982852</v>
+        <v>1.912105044752252</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2507364586208638</v>
+        <v>0.690217381655053</v>
       </c>
       <c r="N4">
-        <v>0.9953708979673621</v>
+        <v>0.7470169847480648</v>
       </c>
       <c r="O4">
-        <v>1.405688021901184</v>
+        <v>0.8422961362413304</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01517839224198525</v>
+        <v>0.04821446625833659</v>
       </c>
       <c r="D5">
-        <v>0.01514313469117212</v>
+        <v>0.04333841312105591</v>
       </c>
       <c r="E5">
-        <v>0.1192687151943304</v>
+        <v>0.1755315931279</v>
       </c>
       <c r="F5">
-        <v>0.4355503156784621</v>
+        <v>0.3110790816916733</v>
       </c>
       <c r="G5">
-        <v>0.2844274486394482</v>
+        <v>0.2212338279916821</v>
       </c>
       <c r="H5">
-        <v>0.4564314478919869</v>
+        <v>0.1951842146176119</v>
       </c>
       <c r="I5">
-        <v>0.3210547459319493</v>
+        <v>0.2200525238906756</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5712911943524546</v>
+        <v>1.836974460804839</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2422481540065604</v>
+        <v>0.6612314580098584</v>
       </c>
       <c r="N5">
-        <v>0.9958841124018747</v>
+        <v>0.7465936290579762</v>
       </c>
       <c r="O5">
-        <v>1.406086929509385</v>
+        <v>0.8280976668510505</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01507105914376439</v>
+        <v>0.04787294339073611</v>
       </c>
       <c r="D6">
-        <v>0.01504964594235503</v>
+        <v>0.04305485089852823</v>
       </c>
       <c r="E6">
-        <v>0.1190262906494155</v>
+        <v>0.1743966680913118</v>
       </c>
       <c r="F6">
-        <v>0.4354253382323421</v>
+        <v>0.3098314294890159</v>
       </c>
       <c r="G6">
-        <v>0.2843476019807198</v>
+        <v>0.2203293259112442</v>
       </c>
       <c r="H6">
-        <v>0.4565572728635772</v>
+        <v>0.1949967161253383</v>
       </c>
       <c r="I6">
-        <v>0.3209899514690555</v>
+        <v>0.2192238225929124</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5672899663153714</v>
+        <v>1.824493885104999</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2408392452042065</v>
+        <v>0.6564223711979196</v>
       </c>
       <c r="N6">
-        <v>0.9959750805493925</v>
+        <v>0.7465350214698603</v>
       </c>
       <c r="O6">
-        <v>1.40616929807193</v>
+        <v>0.8257722725600303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01581571887872002</v>
+        <v>0.05024339389663623</v>
       </c>
       <c r="D7">
-        <v>0.01569789569422397</v>
+        <v>0.04502204011875222</v>
       </c>
       <c r="E7">
-        <v>0.1207200357942071</v>
+        <v>0.1823116419953905</v>
       </c>
       <c r="F7">
-        <v>0.4363228238143506</v>
+        <v>0.3185521291155666</v>
       </c>
       <c r="G7">
-        <v>0.2849253907068388</v>
+        <v>0.2266615845065445</v>
       </c>
       <c r="H7">
-        <v>0.4557056940249424</v>
+        <v>0.1963343198569873</v>
       </c>
       <c r="I7">
-        <v>0.3214618750396525</v>
+        <v>0.2250208188543077</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5950434365608999</v>
+        <v>1.911092147237525</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2506219444437505</v>
+        <v>0.6898261892872739</v>
       </c>
       <c r="N7">
-        <v>0.9953774340907842</v>
+        <v>0.7470104873181356</v>
       </c>
       <c r="O7">
-        <v>1.405692320137604</v>
+        <v>0.8421024669037394</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01909287458900621</v>
+        <v>0.06070521403279372</v>
       </c>
       <c r="D8">
-        <v>0.01854179137644252</v>
+        <v>0.05367866974145841</v>
       </c>
       <c r="E8">
-        <v>0.1284694715171284</v>
+        <v>0.2182436478889542</v>
       </c>
       <c r="F8">
-        <v>0.4410262547510655</v>
+        <v>0.3586180234059242</v>
       </c>
       <c r="G8">
-        <v>0.2880593364673203</v>
+        <v>0.2560204549793212</v>
       </c>
       <c r="H8">
-        <v>0.4524869051496836</v>
+        <v>0.2031669510553513</v>
       </c>
       <c r="I8">
-        <v>0.324093660860818</v>
+        <v>0.2517735509350203</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7170211303663336</v>
+        <v>2.292573878986559</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.293872029196045</v>
+        <v>0.8379195139675488</v>
       </c>
       <c r="N8">
-        <v>0.9935741753677974</v>
+        <v>0.750854622938796</v>
       </c>
       <c r="O8">
-        <v>1.4059346019299</v>
+        <v>0.9190929601704028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02548566431050858</v>
+        <v>0.08126602526931492</v>
       </c>
       <c r="D9">
-        <v>0.02405653896126125</v>
+        <v>0.07058530698415666</v>
       </c>
       <c r="E9">
-        <v>0.144673522259545</v>
+        <v>0.2931525824551571</v>
       </c>
       <c r="F9">
-        <v>0.4529264250736205</v>
+        <v>0.4437267806171263</v>
       </c>
       <c r="G9">
-        <v>0.2963168538882286</v>
+        <v>0.3194908971659629</v>
       </c>
       <c r="H9">
-        <v>0.4481125409603948</v>
+        <v>0.2202693080267295</v>
       </c>
       <c r="I9">
-        <v>0.3312340079804557</v>
+        <v>0.3090678244711</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9543497121239568</v>
+        <v>3.039366236529673</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3789687357264455</v>
+        <v>1.131936527030611</v>
       </c>
       <c r="N9">
-        <v>0.9930209894473592</v>
+        <v>0.7651524554563309</v>
       </c>
       <c r="O9">
-        <v>1.414871548429517</v>
+        <v>1.090256599335845</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03016081821421324</v>
+        <v>0.09644114473442755</v>
       </c>
       <c r="D10">
-        <v>0.02806890730363421</v>
+        <v>0.08298412475820527</v>
       </c>
       <c r="E10">
-        <v>0.1572111495284361</v>
+        <v>0.351756033291359</v>
       </c>
       <c r="F10">
-        <v>0.4633093500992373</v>
+        <v>0.5110999745602953</v>
       </c>
       <c r="G10">
-        <v>0.3036836032238739</v>
+        <v>0.3705336957242338</v>
       </c>
       <c r="H10">
-        <v>0.4460807828923805</v>
+        <v>0.2354558603503705</v>
       </c>
       <c r="I10">
-        <v>0.3376930674264997</v>
+        <v>0.3547340808856703</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.127507153572765</v>
+        <v>3.588421433161102</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4416628493032846</v>
+        <v>1.351325131317211</v>
       </c>
       <c r="N10">
-        <v>0.9944218769293371</v>
+        <v>0.7802707197485574</v>
       </c>
       <c r="O10">
-        <v>1.426624728478913</v>
+        <v>1.230807615787313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03228276463171653</v>
+        <v>0.1033695327557922</v>
       </c>
       <c r="D11">
-        <v>0.02988541477677842</v>
+        <v>0.08862448003915091</v>
       </c>
       <c r="E11">
-        <v>0.1630562042624675</v>
+        <v>0.3793980456833452</v>
       </c>
       <c r="F11">
-        <v>0.4683907127435774</v>
+        <v>0.5430042815223501</v>
       </c>
       <c r="G11">
-        <v>0.3073199398837403</v>
+        <v>0.3949054047299967</v>
       </c>
       <c r="H11">
-        <v>0.4454133764491672</v>
+        <v>0.2430200247446805</v>
       </c>
       <c r="I11">
-        <v>0.3408962843025662</v>
+        <v>0.3764327124629858</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.206005219862504</v>
+        <v>3.838571850650624</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4702222675767018</v>
+        <v>1.452147172913868</v>
       </c>
       <c r="N11">
-        <v>0.9954494312490851</v>
+        <v>0.788267698643935</v>
       </c>
       <c r="O11">
-        <v>1.433104246168028</v>
+        <v>1.298551213707725</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03308557178243632</v>
+        <v>0.1059975893337111</v>
       </c>
       <c r="D12">
-        <v>0.0305719896519463</v>
+        <v>0.09076073708889965</v>
       </c>
       <c r="E12">
-        <v>0.1652902362420292</v>
+        <v>0.3900254636179312</v>
       </c>
       <c r="F12">
-        <v>0.4703664974995121</v>
+        <v>0.5552841971013223</v>
       </c>
       <c r="G12">
-        <v>0.3087381268250482</v>
+        <v>0.4043172103366146</v>
       </c>
       <c r="H12">
-        <v>0.4451975927627245</v>
+        <v>0.2459863609408046</v>
       </c>
       <c r="I12">
-        <v>0.3421474490558012</v>
+        <v>0.3847955747211955</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.2356897666848</v>
+        <v>3.933377164207229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4810425609517921</v>
+        <v>1.490497970312276</v>
       </c>
       <c r="N12">
-        <v>0.9958944681702633</v>
+        <v>0.791467445777613</v>
       </c>
       <c r="O12">
-        <v>1.435721227412188</v>
+        <v>1.324803881513532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03291270586255735</v>
+        <v>0.1054313800075164</v>
       </c>
       <c r="D13">
-        <v>0.03042418180012874</v>
+        <v>0.09030063303097791</v>
       </c>
       <c r="E13">
-        <v>0.164808175348746</v>
+        <v>0.3877292303750579</v>
       </c>
       <c r="F13">
-        <v>0.4699386813800075</v>
+        <v>0.5526303744534147</v>
       </c>
       <c r="G13">
-        <v>0.3084308603418435</v>
+        <v>0.4022817960548792</v>
       </c>
       <c r="H13">
-        <v>0.4452424221199465</v>
+        <v>0.2453428454478512</v>
       </c>
       <c r="I13">
-        <v>0.3418762892623377</v>
+        <v>0.3829877689089329</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.229298519619533</v>
+        <v>3.912955239684266</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4787119778719102</v>
+        <v>1.482230387326979</v>
       </c>
       <c r="N13">
-        <v>0.9957961373478099</v>
+        <v>0.7907705227251967</v>
       </c>
       <c r="O13">
-        <v>1.435150343050509</v>
+        <v>1.319122359338422</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03234882685968898</v>
+        <v>0.1035856510160329</v>
       </c>
       <c r="D14">
-        <v>0.02994192593241252</v>
+        <v>0.08880022144605704</v>
       </c>
       <c r="E14">
-        <v>0.163239584277072</v>
+        <v>0.3802690511689093</v>
       </c>
       <c r="F14">
-        <v>0.4685522274571454</v>
+        <v>0.5440104738635725</v>
       </c>
       <c r="G14">
-        <v>0.3074357885466128</v>
+        <v>0.3956759545605877</v>
       </c>
       <c r="H14">
-        <v>0.4453948832105823</v>
+        <v>0.2432619780042984</v>
       </c>
       <c r="I14">
-        <v>0.3409984528475078</v>
+        <v>0.3771177248438633</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.208448216941406</v>
+        <v>3.846369818617234</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4711123514631907</v>
+        <v>1.455298725942257</v>
       </c>
       <c r="N14">
-        <v>0.9954849250106292</v>
+        <v>0.7885274448582607</v>
       </c>
       <c r="O14">
-        <v>1.433316271087051</v>
+        <v>1.300698706449822</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03200333879375705</v>
+        <v>0.1024556900853071</v>
       </c>
       <c r="D15">
-        <v>0.02964636017001965</v>
+        <v>0.08788123643577705</v>
       </c>
       <c r="E15">
-        <v>0.162281472493504</v>
+        <v>0.3757208901935982</v>
       </c>
       <c r="F15">
-        <v>0.4677097045524121</v>
+        <v>0.5387569297535038</v>
       </c>
       <c r="G15">
-        <v>0.3068316471423316</v>
+        <v>0.3916540152256403</v>
       </c>
       <c r="H15">
-        <v>0.4454930822450507</v>
+        <v>0.2420008999624343</v>
       </c>
       <c r="I15">
-        <v>0.3404657265610211</v>
+        <v>0.3735415779534179</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.195671414946048</v>
+        <v>3.805595325020874</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4664580653917341</v>
+        <v>1.438825434824437</v>
       </c>
       <c r="N15">
-        <v>0.9953015756942989</v>
+        <v>0.7871761474895322</v>
       </c>
       <c r="O15">
-        <v>1.432214131458551</v>
+        <v>1.289493391117702</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03002204418491772</v>
+        <v>0.09598893242235818</v>
       </c>
       <c r="D16">
-        <v>0.02795001496202332</v>
+        <v>0.08261554646887248</v>
       </c>
       <c r="E16">
-        <v>0.1568320344897387</v>
+        <v>0.3499709018692485</v>
       </c>
       <c r="F16">
-        <v>0.4629844847447657</v>
+        <v>0.5090417239034224</v>
       </c>
       <c r="G16">
-        <v>0.3034517136415928</v>
+        <v>0.3689655655606003</v>
       </c>
       <c r="H16">
-        <v>0.44612956914915</v>
+        <v>0.234975362168413</v>
       </c>
       <c r="I16">
-        <v>0.3374890677767723</v>
+        <v>0.3533357317211312</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.122371487442138</v>
+        <v>3.572083198992061</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4397972007193403</v>
+        <v>1.344758799766282</v>
       </c>
       <c r="N16">
-        <v>0.9943625603009849</v>
+        <v>0.7797715063732653</v>
       </c>
       <c r="O16">
-        <v>1.426224109783021</v>
+        <v>1.226461394234491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02880532725588125</v>
+        <v>0.09202878769112033</v>
       </c>
       <c r="D17">
-        <v>0.02690709509240463</v>
+        <v>0.07938548730695061</v>
       </c>
       <c r="E17">
-        <v>0.15352544728308</v>
+        <v>0.3344386776921979</v>
       </c>
       <c r="F17">
-        <v>0.4601774998119694</v>
+        <v>0.4911464046693226</v>
       </c>
       <c r="G17">
-        <v>0.301451399276857</v>
+        <v>0.3553538191751215</v>
       </c>
       <c r="H17">
-        <v>0.4465858287261995</v>
+        <v>0.2308386565952816</v>
       </c>
       <c r="I17">
-        <v>0.335730900186654</v>
+        <v>0.3411859978166021</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.077333350877609</v>
+        <v>3.428945331741886</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4234515931628096</v>
+        <v>1.287330553360277</v>
       </c>
       <c r="N17">
-        <v>0.993886323236481</v>
+        <v>0.7755229832129515</v>
       </c>
       <c r="O17">
-        <v>1.422839893253979</v>
+        <v>1.188804285832475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02810505385315309</v>
+        <v>0.08975333294020515</v>
       </c>
       <c r="D18">
-        <v>0.02630641502817355</v>
+        <v>0.07752762592259899</v>
       </c>
       <c r="E18">
-        <v>0.1516369000140045</v>
+        <v>0.325596276793334</v>
       </c>
       <c r="F18">
-        <v>0.4585966990360646</v>
+        <v>0.4809705650203142</v>
       </c>
       <c r="G18">
-        <v>0.3003277018929253</v>
+        <v>0.3476320520230018</v>
       </c>
       <c r="H18">
-        <v>0.446872432327595</v>
+        <v>0.2285205645630981</v>
       </c>
       <c r="I18">
-        <v>0.334744583388499</v>
+        <v>0.3342840079608891</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.051403101958158</v>
+        <v>3.346650675529304</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.414053768323555</v>
+        <v>1.254393851507004</v>
       </c>
       <c r="N18">
-        <v>0.9936491510915744</v>
+        <v>0.7731840597621442</v>
       </c>
       <c r="O18">
-        <v>1.420999994316674</v>
+        <v>1.167499838981769</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02786787714758532</v>
+        <v>0.08898327695202113</v>
       </c>
       <c r="D19">
-        <v>0.02610289545086886</v>
+        <v>0.07689857233809505</v>
       </c>
       <c r="E19">
-        <v>0.1509997488302375</v>
+        <v>0.3226175333404839</v>
       </c>
       <c r="F19">
-        <v>0.4580672528803191</v>
+        <v>0.4775447835561835</v>
       </c>
       <c r="G19">
-        <v>0.2999518399656296</v>
+        <v>0.3450355293595919</v>
       </c>
       <c r="H19">
-        <v>0.4469736230663841</v>
+        <v>0.2277459900580538</v>
       </c>
       <c r="I19">
-        <v>0.3344149137124575</v>
+        <v>0.3319615362218329</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.042619240920942</v>
+        <v>3.318792344779183</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4108724749048775</v>
+        <v>1.243257556398959</v>
       </c>
       <c r="N19">
-        <v>0.993575166100527</v>
+        <v>0.7724098178231742</v>
       </c>
       <c r="O19">
-        <v>1.420395334363775</v>
+        <v>1.160345941712649</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02893489569001417</v>
+        <v>0.09245010648339758</v>
       </c>
       <c r="D20">
-        <v>0.02701820086718243</v>
+        <v>0.07972933178093911</v>
       </c>
       <c r="E20">
-        <v>0.153876059199753</v>
+        <v>0.3360825276507029</v>
       </c>
       <c r="F20">
-        <v>0.4604728194165872</v>
+        <v>0.4930391496442041</v>
       </c>
       <c r="G20">
-        <v>0.3016615579968516</v>
+        <v>0.3567915823744556</v>
       </c>
       <c r="H20">
-        <v>0.4465347569750548</v>
+        <v>0.2312726249022177</v>
       </c>
       <c r="I20">
-        <v>0.3359154789308434</v>
+        <v>0.3424703428123621</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.082130390284362</v>
+        <v>3.444178869689893</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4251912259359329</v>
+        <v>1.293433933403136</v>
       </c>
       <c r="N20">
-        <v>0.9939332177765863</v>
+        <v>0.7759643346067406</v>
       </c>
       <c r="O20">
-        <v>1.423189111837161</v>
+        <v>1.192775848198835</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03251447184210576</v>
+        <v>0.1041276595173741</v>
       </c>
       <c r="D21">
-        <v>0.03008361169507623</v>
+        <v>0.08924091541863532</v>
       </c>
       <c r="E21">
-        <v>0.1636997552663857</v>
+        <v>0.3824557885029733</v>
       </c>
       <c r="F21">
-        <v>0.468958061956755</v>
+        <v>0.5465368135867976</v>
       </c>
       <c r="G21">
-        <v>0.3077269460834628</v>
+        <v>0.3976111479415465</v>
       </c>
       <c r="H21">
-        <v>0.4453490988068154</v>
+        <v>0.2438703486262739</v>
       </c>
       <c r="I21">
-        <v>0.3412552579998405</v>
+        <v>0.3788378264193142</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.214573582707487</v>
+        <v>3.865925233269991</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4733443995354065</v>
+        <v>1.463204340441408</v>
       </c>
       <c r="N21">
-        <v>0.9955748193963956</v>
+        <v>0.7891815507309587</v>
       </c>
       <c r="O21">
-        <v>1.433850546514236</v>
+        <v>1.306093471198523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03484967173176301</v>
+        <v>0.1117858297880332</v>
       </c>
       <c r="D22">
-        <v>0.03207945572977877</v>
+        <v>0.09545967108937958</v>
       </c>
       <c r="E22">
-        <v>0.170240520242956</v>
+        <v>0.4137057034815399</v>
       </c>
       <c r="F22">
-        <v>0.4748043624614979</v>
+        <v>0.5826664968728466</v>
       </c>
       <c r="G22">
-        <v>0.3119311683484369</v>
+        <v>0.4253632047164331</v>
       </c>
       <c r="H22">
-        <v>0.4447895739946688</v>
+        <v>0.2527018808695658</v>
       </c>
       <c r="I22">
-        <v>0.3449676656562701</v>
+        <v>0.40346415444602</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.300893227952145</v>
+        <v>4.142032554396167</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5048470109120586</v>
+        <v>1.575172790360966</v>
       </c>
       <c r="N22">
-        <v>0.9969735831030988</v>
+        <v>0.7988245715234825</v>
       </c>
       <c r="O22">
-        <v>1.441770603369235</v>
+        <v>1.383675145926588</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03360373365879354</v>
+        <v>0.1076958402326653</v>
       </c>
       <c r="D23">
-        <v>0.03101494305730768</v>
+        <v>0.09214025786875624</v>
       </c>
       <c r="E23">
-        <v>0.1667384836396053</v>
+        <v>0.3969342506856961</v>
       </c>
       <c r="F23">
-        <v>0.4716565394075616</v>
+        <v>0.5632705114544265</v>
       </c>
       <c r="G23">
-        <v>0.3096652642746136</v>
+        <v>0.410447167450954</v>
       </c>
       <c r="H23">
-        <v>0.4450684918797805</v>
+        <v>0.2479309210612968</v>
       </c>
       <c r="I23">
-        <v>0.3429658955706429</v>
+        <v>0.3902375513839971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.254845341091141</v>
+        <v>3.994617332027701</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.488030645859979</v>
+        <v>1.515311629093944</v>
       </c>
       <c r="N23">
-        <v>0.9961972823538048</v>
+        <v>0.7935823232422479</v>
       </c>
       <c r="O23">
-        <v>1.437456258540976</v>
+        <v>1.341927843123102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02887632018679653</v>
+        <v>0.09225962431513324</v>
       </c>
       <c r="D24">
-        <v>0.02696797334355949</v>
+        <v>0.0795738823918839</v>
       </c>
       <c r="E24">
-        <v>0.1537175087821723</v>
+        <v>0.3353390726118306</v>
       </c>
       <c r="F24">
-        <v>0.4603392027239224</v>
+        <v>0.4921830908204328</v>
       </c>
       <c r="G24">
-        <v>0.3015664632995936</v>
+        <v>0.3561412475750814</v>
       </c>
       <c r="H24">
-        <v>0.4465577708403856</v>
+        <v>0.2310762410337617</v>
       </c>
       <c r="I24">
-        <v>0.3358319546417761</v>
+        <v>0.3418894327231854</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.079961764578798</v>
+        <v>3.437291797645685</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4244047395566213</v>
+        <v>1.290674349322558</v>
       </c>
       <c r="N24">
-        <v>0.993911902660372</v>
+        <v>0.7757644777055646</v>
       </c>
       <c r="O24">
-        <v>1.423030900797357</v>
+        <v>1.190979233774215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02375996493289279</v>
+        <v>0.07569479597727025</v>
       </c>
       <c r="D25">
-        <v>0.02257145367626379</v>
+        <v>0.06601705253888213</v>
       </c>
       <c r="E25">
-        <v>0.1401801476286693</v>
+        <v>0.2723270134848974</v>
       </c>
       <c r="F25">
-        <v>0.449419711340532</v>
+        <v>0.4199171112879085</v>
       </c>
       <c r="G25">
-        <v>0.2938555899724804</v>
+        <v>0.301607866837287</v>
       </c>
       <c r="H25">
-        <v>0.4490883953416898</v>
+        <v>0.2152099827202534</v>
       </c>
       <c r="I25">
-        <v>0.3290897853869268</v>
+        <v>0.2929885033646897</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8903532428073504</v>
+        <v>2.837361596672054</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.355917398774146</v>
+        <v>1.051894736281987</v>
       </c>
       <c r="N25">
-        <v>0.9928524699872128</v>
+        <v>0.7605119550330386</v>
       </c>
       <c r="O25">
-        <v>1.411544998278345</v>
+        <v>1.041543296213234</v>
       </c>
     </row>
   </sheetData>
